--- a/config/project/reliability/reliabilityReport.xlsx
+++ b/config/project/reliability/reliabilityReport.xlsx
@@ -377,7 +377,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -495,10 +495,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>直流充电机可靠性检验报告</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -637,13 +633,69 @@
   <si>
     <t>测试时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高东豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶斯君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -686,15 +738,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -868,7 +911,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -911,18 +954,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -932,10 +972,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -950,7 +990,43 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -962,41 +1038,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1302,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12"/>
@@ -1321,321 +1367,321 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="25.5">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="20.25">
-      <c r="F2" s="18" t="s">
-        <v>23</v>
+      <c r="F2" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="41" t="s">
+      <c r="K3" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="24"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:21" ht="41.1" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="26" t="s">
-        <v>47</v>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="48" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="22" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>25</v>
+      <c r="D5" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="U5" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="U5" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="39.950000000000003" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="22" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>26</v>
+      <c r="D6" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="41.45" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="22" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>27</v>
+      <c r="D7" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="50.1" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>28</v>
+      <c r="D8" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="39" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>29</v>
+      <c r="D9" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="33.6" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>30</v>
+      <c r="D10" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="33.6" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>31</v>
+      <c r="A11" s="31"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="24"/>
+        <v>71</v>
+      </c>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:21" ht="28.5" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>32</v>
+      <c r="D12" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="44.25" customHeight="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>33</v>
+      <c r="D13" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="28.5" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="20" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>34</v>
+      <c r="D14" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="19"/>
+        <v>74</v>
+      </c>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:21" ht="26.45" customHeight="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>35</v>
+      <c r="D15" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1647,24 +1693,37 @@
       <c r="B18" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="14" t="str">
+        <f>IF(COUNTIF(J4:J15,"合格")=12,"合格","不合格")</f>
+        <v>不合格</v>
+      </c>
       <c r="D18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="E18" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="29"/>
       <c r="G18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
+      <c r="H18" s="43" t="str">
+        <f>K15</f>
+        <v>time12</v>
+      </c>
+      <c r="I18" s="30"/>
       <c r="J18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="14"/>
+      <c r="K18" s="26" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="B4:B15"/>
+    <mergeCell ref="A3:C3"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="A4:A15"/>
@@ -1680,9 +1739,6 @@
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="B4:B15"/>
-    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.39370078740157483" bottom="0.74803149606299213" header="0.19685039370078741" footer="0.31496062992125984"/>
